--- a/biology/Médecine/Rhume_de_hanche/Rhume_de_hanche.xlsx
+++ b/biology/Médecine/Rhume_de_hanche/Rhume_de_hanche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La synovite aiguë transitoire, plus communément appelée rhume de hanche, est une affection autolimitée qui se caractérise par une inflammation du revêtement interne (la synovie) de la capsule de l'articulation de la hanche. Elle se caractérise par une boiterie souvent unilatérale chez l'enfant typiquement âgé de trois à dix ans. 
 </t>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La synovite aiguë transitoire est la pathologie de hanche la plus fréquente chez les enfants entre 3 et 10 ans. Son incidence annuelle est de l’ordre de 1/500 enfants[1] avec une prédominance masculine (70 %) et une nette prédominance saisonnière (hiver – printemps)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La synovite aiguë transitoire est la pathologie de hanche la plus fréquente chez les enfants entre 3 et 10 ans. Son incidence annuelle est de l’ordre de 1/500 enfants avec une prédominance masculine (70 %) et une nette prédominance saisonnière (hiver – printemps).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une arthrite réactionnelle, c'est-à-dire qu'il y a une hypersécrétion de liquide inflammatoire (souvent riche en globules blancs, notamment neutrophiles) à l'intérieur de l'articulation sans que l'on y retrouve de bactérie. L'origine de cette hypersécrétion n'est pas bien connue, elle semble affecter beaucoup plus les enfants que les adultes, et les garçons plutôt que les filles. On suspecte une origine virale au vu du pic de prévalence hivernale, mais les études avec des sérologies virales n'ont pas trouvé de lien ; de plus, les études histologiques n'ont pas retrouvé d'hyperplasie de la membrane synoviale[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une arthrite réactionnelle, c'est-à-dire qu'il y a une hypersécrétion de liquide inflammatoire (souvent riche en globules blancs, notamment neutrophiles) à l'intérieur de l'articulation sans que l'on y retrouve de bactérie. L'origine de cette hypersécrétion n'est pas bien connue, elle semble affecter beaucoup plus les enfants que les adultes, et les garçons plutôt que les filles. On suspecte une origine virale au vu du pic de prévalence hivernale, mais les études avec des sérologies virales n'ont pas trouvé de lien ; de plus, les études histologiques n'ont pas retrouvé d'hyperplasie de la membrane synoviale.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les garçons sont plus sujets que les filles, la tranche d'âge le plus souvent touchée se situant entre trois et cinq ans.
 Le tableau classique est de début brutal, avec refus de la marche en rapport avec une douleur à l'appui irradiant jusqu'au genou. L'examen retrouve une limitation douloureuse de la rotation interne, abduction et hyperextension, associée à un fébricule. Des notions d'une infection virale, rhinopharyngée dans l'anamnèse récente.
@@ -608,10 +626,50 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Biologie
-Les signes biologiques de syndrome inflammatoire sont le plus souvent absents ou peu marqués.
-Imageries
-La radiographie du bassin de face montre :
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signes biologiques de syndrome inflammatoire sont le plus souvent absents ou peu marqués.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rhume_de_hanche</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rhume_de_hanche</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Examens</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Imageries</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La radiographie du bassin de face montre :
 une épiphyse proximale du fémur normale ;
 un épanchement intra-articulaire avec :
 élargissement de l'interligne articulaire,
@@ -623,31 +681,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Rhume_de_hanche</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhume_de_hanche</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Diagnostics différentiels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Ostéoarthrite de hanche
 Maladie de Legg-Calvé-Perthes dont les premières manifestations ressemblent au rhume de hanche. Cette similitude incite à recontrôler tout rhume de hanche par une nouvelle radiologie dans les six à huit semaines qui suivent le début des symptômes.
@@ -657,31 +717,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Rhume_de_hanche</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Rhume_de_hanche</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitements et évolution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le repos au lit durant une semaine est incontournable avec, éventuellement, une décharge en traction du membre inférieur. Une reprise progressive de la marche peut être ensuite envisagée.
